--- a/notebooks/data/tempat wisata sumedang.xlsx
+++ b/notebooks/data/tempat wisata sumedang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\sistem-rekomendasi-adaptif\notebooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F7065-8FEE-422D-9703-33710F496079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9677B541-4FBB-4CE5-B637-A61CFA8F10A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" tabRatio="592" xr2:uid="{EE7FBFA5-25EF-43EB-AA27-71CF46AB51AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" xr2:uid="{EE7FBFA5-25EF-43EB-AA27-71CF46AB51AD}"/>
   </bookViews>
   <sheets>
     <sheet name="tempat wisata sumedang1" sheetId="1" r:id="rId1"/>
@@ -3460,18 +3460,12 @@
     <t>Kolam Renang Yadika Tanjungsari</t>
   </si>
   <si>
-    <t>Komplek Pemakaman Cut Nyak Dien (belum ada review)</t>
-  </si>
-  <si>
     <t>Sari Kedele Farm (SKF)</t>
   </si>
   <si>
     <t>Saung Bambu Parahyangan (Nolana)</t>
   </si>
   <si>
-    <t>Saung bapak undang (belum ada review)</t>
-  </si>
-  <si>
     <t>Kampung Wisata Pangjujugan</t>
   </si>
   <si>
@@ -3662,6 +3656,12 @@
   </si>
   <si>
     <t>Jatinangor National Golf &amp; Resort</t>
+  </si>
+  <si>
+    <t>Komplek Pemakaman Cut Nyak Dien</t>
+  </si>
+  <si>
+    <t>Saung bapak undang</t>
   </si>
 </sst>
 </file>
@@ -4126,15 +4126,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F5838-4BCF-46C4-A7C1-E21E32B9C17C}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="48" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A17" sqref="A17"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4154,7 +4154,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="16" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="348" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="348" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="16" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="16" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="16" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="16" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="16" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="16" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="16" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="16" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4701,12 +4701,12 @@
         <v>579</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>504</v>
@@ -4730,7 +4730,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="16" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5020,21 +5020,21 @@
         <v>589</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>491</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>38</v>
@@ -5043,13 +5043,13 @@
         <v>12</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" s="16" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="16" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" s="16" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" s="16" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" s="16" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" s="16" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" s="16" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" s="16" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" s="16" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" s="16" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="16" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" s="16" customFormat="1" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" s="16" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6091,12 +6091,12 @@
         <v>479</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" s="16" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>496</v>
@@ -6120,7 +6120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="16" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" s="16" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" s="16" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" s="16" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="16" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" s="16" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -6381,21 +6381,21 @@
         <v>627</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="16" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" s="16" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>496</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>10</v>
@@ -6407,10 +6407,10 @@
         <v>125</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="16" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" s="16" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="16" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" s="16" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="16" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" s="16" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" s="16" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" s="16" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -6845,12 +6845,12 @@
         <v>655</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="16" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" s="16" customFormat="1" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>1072</v>
+      <c r="B94" s="11" t="s">
+        <v>1138</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>286</v>
@@ -6874,7 +6874,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" s="16" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" s="16" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -7135,21 +7135,21 @@
         <v>642</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>286</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>38</v>
@@ -7161,10 +7161,10 @@
         <v>176</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" s="16" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="16" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" s="16" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>406</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>8</v>
@@ -7914,7 +7914,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -8378,21 +8378,21 @@
         <v>674</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>490</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>34</v>
@@ -8401,27 +8401,27 @@
         <v>350</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>490</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>19</v>
@@ -8430,27 +8430,27 @@
         <v>586</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>490</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>24</v>
@@ -8459,13 +8459,13 @@
         <v>2511</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -8494,21 +8494,21 @@
         <v>675</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>490</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>34</v>
@@ -8517,27 +8517,27 @@
         <v>3</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>151</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>490</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>10</v>
@@ -8546,13 +8546,13 @@
         <v>501</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -8581,21 +8581,21 @@
         <v>676</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>490</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>19</v>
@@ -8604,27 +8604,27 @@
         <v>608</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>490</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>24</v>
@@ -8633,13 +8633,13 @@
         <v>473</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -8811,12 +8811,12 @@
       </c>
       <c r="I161" s="5"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>490</v>
@@ -8840,7 +8840,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="165" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -8930,7 +8930,7 @@
       <c r="K165" s="16"/>
       <c r="L165" s="16"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -8959,12 +8959,12 @@
         <v>683</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>490</v>
@@ -8993,7 +8993,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>1075</v>
+        <v>1139</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>490</v>
@@ -9017,7 +9017,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="172" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -9136,7 +9136,7 @@
       <c r="K172" s="16"/>
       <c r="L172" s="16"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -9194,12 +9194,12 @@
         <v>690</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>174</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>504</v>
@@ -9223,7 +9223,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -9408,10 +9408,10 @@
         <v>490</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>19</v>
@@ -9420,13 +9420,13 @@
         <v>3007</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="I182" s="12" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -9530,7 +9530,7 @@
       <c r="H186" s="8"/>
       <c r="I186" s="5"/>
     </row>
-    <row r="187" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="188" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -9591,7 +9591,7 @@
       <c r="K188" s="16"/>
       <c r="L188" s="16"/>
     </row>
-    <row r="189" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -9602,10 +9602,10 @@
         <v>491</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>162</v>
@@ -9614,16 +9614,16 @@
         <v>65</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I189" s="12" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J189" s="16"/>
       <c r="K189" s="16"/>
       <c r="L189" s="16"/>
     </row>
-    <row r="190" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="191" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -9684,7 +9684,7 @@
       <c r="K191" s="16"/>
       <c r="L191" s="16"/>
     </row>
-    <row r="192" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -9716,7 +9716,7 @@
       <c r="K192" s="16"/>
       <c r="L192" s="16"/>
     </row>
-    <row r="193" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -9748,7 +9748,7 @@
       <c r="K193" s="16"/>
       <c r="L193" s="16"/>
     </row>
-    <row r="194" spans="1:12" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" customFormat="1" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -9780,7 +9780,7 @@
       <c r="K194" s="16"/>
       <c r="L194" s="16"/>
     </row>
-    <row r="195" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -9812,7 +9812,7 @@
       <c r="K195" s="16"/>
       <c r="L195" s="16"/>
     </row>
-    <row r="196" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -9844,7 +9844,7 @@
       <c r="K196" s="16"/>
       <c r="L196" s="16"/>
     </row>
-    <row r="197" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -9876,7 +9876,7 @@
       <c r="K197" s="16"/>
       <c r="L197" s="16"/>
     </row>
-    <row r="198" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -9908,7 +9908,7 @@
       <c r="K198" s="16"/>
       <c r="L198" s="16"/>
     </row>
-    <row r="199" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -9940,7 +9940,7 @@
       <c r="K199" s="16"/>
       <c r="L199" s="16"/>
     </row>
-    <row r="200" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -9972,7 +9972,7 @@
       <c r="K200" s="16"/>
       <c r="L200" s="16"/>
     </row>
-    <row r="201" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -10004,7 +10004,7 @@
       <c r="K201" s="16"/>
       <c r="L201" s="16"/>
     </row>
-    <row r="202" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -10036,7 +10036,7 @@
       <c r="K202" s="16"/>
       <c r="L202" s="16"/>
     </row>
-    <row r="203" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -10068,7 +10068,7 @@
       <c r="K203" s="16"/>
       <c r="L203" s="16"/>
     </row>
-    <row r="204" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -10100,7 +10100,7 @@
       <c r="K204" s="16"/>
       <c r="L204" s="16"/>
     </row>
-    <row r="205" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -10132,7 +10132,7 @@
       <c r="K205" s="16"/>
       <c r="L205" s="16"/>
     </row>
-    <row r="206" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -10164,7 +10164,7 @@
       <c r="K206" s="16"/>
       <c r="L206" s="16"/>
     </row>
-    <row r="207" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -10196,7 +10196,7 @@
       <c r="K207" s="16"/>
       <c r="L207" s="16"/>
     </row>
-    <row r="208" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -10228,7 +10228,7 @@
       <c r="K208" s="16"/>
       <c r="L208" s="16"/>
     </row>
-    <row r="209" spans="1:12" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -10260,7 +10260,7 @@
       <c r="K209" s="16"/>
       <c r="L209" s="16"/>
     </row>
-    <row r="210" spans="1:12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -10292,7 +10292,7 @@
       <c r="K210" s="16"/>
       <c r="L210" s="16"/>
     </row>
-    <row r="211" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -10324,7 +10324,7 @@
       <c r="K211" s="16"/>
       <c r="L211" s="16"/>
     </row>
-    <row r="212" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -10356,7 +10356,7 @@
       <c r="K212" s="16"/>
       <c r="L212" s="16"/>
     </row>
-    <row r="213" spans="1:12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -10388,7 +10388,7 @@
       <c r="K213" s="16"/>
       <c r="L213" s="16"/>
     </row>
-    <row r="214" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -10420,7 +10420,7 @@
       <c r="K214" s="16"/>
       <c r="L214" s="16"/>
     </row>
-    <row r="215" spans="1:12" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -10452,7 +10452,7 @@
       <c r="K215" s="16"/>
       <c r="L215" s="16"/>
     </row>
-    <row r="216" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -10484,7 +10484,7 @@
       <c r="K216" s="16"/>
       <c r="L216" s="16"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -10542,12 +10542,12 @@
         <v>720</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>218</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>491</v>
@@ -10571,7 +10571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -10803,12 +10803,12 @@
         <v>724</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>227</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>286</v>
@@ -10832,7 +10832,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -10890,12 +10890,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>230</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>491</v>
@@ -10919,7 +10919,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -10949,7 +10949,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B232" xr:uid="{DB9F5838-4BCF-46C4-A7C1-E21E32B9C17C}"/>
+  <autoFilter ref="B1:B232" xr:uid="{DB9F5838-4BCF-46C4-A7C1-E21E32B9C17C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Saung bapak undang (belum ada review)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I233">
     <sortCondition ref="B1:B233"/>
   </sortState>
